--- a/Institutional Research/Research List.xlsx
+++ b/Institutional Research/Research List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Institutional Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\Institutional Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628CCB9-D16E-47FF-89AA-2F32F90BFE4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68642E63-818A-4A69-A1DC-EBE07654A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D5AFF84F-BD4E-475F-BF84-E2ED6620BB04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5AFF84F-BD4E-475F-BF84-E2ED6620BB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>San Francisco</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>hindenburgres</t>
+  </si>
+  <si>
+    <t>Nathan Anderson</t>
+  </si>
+  <si>
+    <t>Andrew Left</t>
+  </si>
+  <si>
+    <t>Carson Block</t>
+  </si>
+  <si>
+    <t>Fuzzy Panda Research</t>
   </si>
 </sst>
 </file>
@@ -164,12 +182,18 @@
       <name val="Farial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +221,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2869B435-D6E9-47C9-A0AE-C08EC97261FC}">
-  <dimension ref="B3:H8"/>
+  <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -527,7 +555,8 @@
     <col min="5" max="5" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" s="2" customFormat="1">
@@ -549,6 +578,9 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -563,10 +595,15 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
@@ -623,6 +660,9 @@
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
@@ -643,6 +683,24 @@
       <c r="G8" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -653,8 +711,12 @@
     <hyperlink ref="F7" r:id="rId5" xr:uid="{3E4FFB65-9FE3-456E-9F01-2C807185050D}"/>
     <hyperlink ref="G8" r:id="rId6" xr:uid="{7E53AC87-B6CE-468B-8E3A-D7158412BB0C}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{F31A4E92-15D8-4707-87B6-670D4EE4E5FE}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{36E317EF-C6C5-427F-82CA-9292E8A7FD6F}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{D575C67F-5589-4169-B9B8-8032DB3B1C09}"/>
+    <hyperlink ref="H4" r:id="rId10" xr:uid="{596D30A1-47A0-43EA-AA0B-633EA40EB35A}"/>
+    <hyperlink ref="H8" r:id="rId11" xr:uid="{F6EBAF2E-B003-4475-81E1-ABEF218D2D13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Institutional Research/Research List.xlsx
+++ b/Institutional Research/Research List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\Institutional Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68642E63-818A-4A69-A1DC-EBE07654A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1762DE-3E51-47A3-9BE1-37A6DABF0B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5AFF84F-BD4E-475F-BF84-E2ED6620BB04}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Type</t>
   </si>
@@ -133,6 +142,9 @@
   </si>
   <si>
     <t>Fuzzy Panda Research</t>
+  </si>
+  <si>
+    <t>Last Accessed</t>
   </si>
 </sst>
 </file>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2869B435-D6E9-47C9-A0AE-C08EC97261FC}">
-  <dimension ref="B3:H9"/>
+  <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -556,10 +568,11 @@
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="2" customFormat="1">
+    <row r="3" spans="2:9" s="2" customFormat="1">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -581,8 +594,11 @@
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -605,7 +621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -623,7 +639,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -641,7 +657,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -664,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -687,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
